--- a/09 Registros de Producción/Pesajes/Pesos Base/guia peso estandar/peso estandar.xlsx
+++ b/09 Registros de Producción/Pesajes/Pesos Base/guia peso estandar/peso estandar.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alabama\Documents\Scanned Documents\Documents\FOTOS\guia peso estandar\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aviagen\OneDrive\Documentos\Produccion\09 Registros de Producción\Pesajes\Pesos Base\guia peso estandar\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
   <si>
     <t>EDAD</t>
   </si>
@@ -602,16 +602,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E71"/>
+  <dimension ref="A1:I71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A60" sqref="A60:XFD60"/>
+      <pane ySplit="1" topLeftCell="A64" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCellId="1" sqref="E1:E66 A1:A66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
@@ -627,8 +627,15 @@
       <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="H1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1">
+        <f>INDEX(B2:E66, MATCH(H2, A2:A66, 0), MATCH(H1, B1:E1, 0))</f>
+        <v>3888</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="15">
         <v>1</v>
       </c>
@@ -644,8 +651,11 @@
       <c r="E2" s="4">
         <v>140</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="H2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="15">
         <v>2</v>
       </c>
@@ -662,7 +672,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="15">
         <v>3</v>
       </c>
@@ -679,7 +689,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="15">
         <v>4</v>
       </c>
@@ -696,7 +706,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="15">
         <v>5</v>
       </c>
@@ -713,7 +723,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="15">
         <v>6</v>
       </c>
@@ -730,7 +740,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="15">
         <v>7</v>
       </c>
@@ -747,7 +757,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="15">
         <v>8</v>
       </c>
@@ -764,7 +774,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="15">
         <v>9</v>
       </c>
@@ -781,7 +791,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="15">
         <v>10</v>
       </c>
@@ -798,7 +808,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A12" s="15">
         <v>11</v>
       </c>
@@ -815,7 +825,7 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13" s="15">
         <v>12</v>
       </c>
@@ -832,7 +842,7 @@
         <v>1270</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A14" s="15">
         <v>13</v>
       </c>
@@ -849,7 +859,7 @@
         <v>1370</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A15" s="15">
         <v>14</v>
       </c>
@@ -866,7 +876,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A16" s="15">
         <v>15</v>
       </c>
